--- a/publipostage/017h5q109/liste_essais_cliniques_identifies_017h5q109.xlsx
+++ b/publipostage/017h5q109/liste_essais_cliniques_identifies_017h5q109.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J301"/>
+  <dimension ref="A1:K301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +531,11 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -564,6 +574,11 @@
       <c r="J3" t="b">
         <v>1</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -602,6 +617,11 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -644,6 +664,11 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -686,6 +711,11 @@
       <c r="J6" t="b">
         <v>1</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -724,6 +754,11 @@
       <c r="J7" t="b">
         <v>1</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -762,6 +797,11 @@
       <c r="J8" t="b">
         <v>1</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -800,6 +840,11 @@
       <c r="J9" t="b">
         <v>1</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -842,6 +887,11 @@
       <c r="J10" t="b">
         <v>0</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -884,6 +934,11 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -926,6 +981,11 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -968,6 +1028,11 @@
       <c r="J13" t="b">
         <v>1</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1006,6 +1071,11 @@
       <c r="J14" t="b">
         <v>1</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1043,6 +1113,11 @@
       </c>
       <c r="J15" t="b">
         <v>1</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1078,6 +1153,11 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1116,6 +1196,11 @@
       <c r="J17" t="b">
         <v>1</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1158,6 +1243,11 @@
       <c r="J18" t="b">
         <v>1</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1196,6 +1286,11 @@
       <c r="J19" t="b">
         <v>1</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1238,6 +1333,11 @@
       <c r="J20" t="b">
         <v>1</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1280,6 +1380,11 @@
       <c r="J21" t="b">
         <v>1</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1318,6 +1423,11 @@
       <c r="J22" t="b">
         <v>1</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1356,6 +1466,11 @@
       <c r="J23" t="b">
         <v>1</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1394,6 +1509,11 @@
       <c r="J24" t="b">
         <v>1</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1436,6 +1556,11 @@
       <c r="J25" t="b">
         <v>0</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1478,6 +1603,11 @@
       <c r="J26" t="b">
         <v>0</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1516,6 +1646,11 @@
       <c r="J27" t="b">
         <v>1</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1558,6 +1693,11 @@
       <c r="J28" t="b">
         <v>1</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1600,6 +1740,11 @@
       <c r="J29" t="b">
         <v>0</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1642,6 +1787,11 @@
       <c r="J30" t="b">
         <v>1</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1684,6 +1834,11 @@
       <c r="J31" t="b">
         <v>0</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1726,6 +1881,11 @@
       <c r="J32" t="b">
         <v>0</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1764,6 +1924,11 @@
       <c r="J33" t="b">
         <v>1</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1806,6 +1971,11 @@
       <c r="J34" t="b">
         <v>1</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1848,6 +2018,11 @@
       <c r="J35" t="b">
         <v>1</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1886,6 +2061,11 @@
       <c r="J36" t="b">
         <v>1</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1928,6 +2108,11 @@
       <c r="J37" t="b">
         <v>0</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1970,6 +2155,11 @@
       <c r="J38" t="b">
         <v>0</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2012,6 +2202,11 @@
       <c r="J39" t="b">
         <v>1</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2054,6 +2249,11 @@
       <c r="J40" t="b">
         <v>1</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2096,6 +2296,11 @@
       <c r="J41" t="b">
         <v>1</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2138,6 +2343,11 @@
       <c r="J42" t="b">
         <v>0</v>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2176,6 +2386,11 @@
       <c r="J43" t="b">
         <v>1</v>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2218,6 +2433,11 @@
       <c r="J44" t="b">
         <v>0</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2260,6 +2480,11 @@
       <c r="J45" t="b">
         <v>0</v>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2302,6 +2527,11 @@
       <c r="J46" t="b">
         <v>0</v>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2340,6 +2570,11 @@
       <c r="J47" t="b">
         <v>1</v>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2382,6 +2617,11 @@
       <c r="J48" t="b">
         <v>0</v>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2424,6 +2664,11 @@
       <c r="J49" t="b">
         <v>0</v>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2462,6 +2707,11 @@
       <c r="J50" t="b">
         <v>0</v>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2500,6 +2750,11 @@
       <c r="J51" t="b">
         <v>1</v>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2542,6 +2797,11 @@
       <c r="J52" t="b">
         <v>0</v>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2584,6 +2844,11 @@
       <c r="J53" t="b">
         <v>0</v>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2626,6 +2891,11 @@
       <c r="J54" t="b">
         <v>1</v>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2668,6 +2938,11 @@
       <c r="J55" t="b">
         <v>1</v>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2706,6 +2981,11 @@
       <c r="J56" t="b">
         <v>1</v>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2748,6 +3028,11 @@
       <c r="J57" t="b">
         <v>0</v>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2790,6 +3075,11 @@
       <c r="J58" t="b">
         <v>0</v>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2832,6 +3122,11 @@
       <c r="J59" t="b">
         <v>0</v>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2874,6 +3169,11 @@
       <c r="J60" t="b">
         <v>1</v>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2916,6 +3216,11 @@
       <c r="J61" t="b">
         <v>0</v>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2958,6 +3263,11 @@
       <c r="J62" t="b">
         <v>0</v>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3000,6 +3310,11 @@
       <c r="J63" t="b">
         <v>1</v>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3042,6 +3357,11 @@
       <c r="J64" t="b">
         <v>0</v>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3084,6 +3404,11 @@
       <c r="J65" t="b">
         <v>1</v>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3126,6 +3451,11 @@
       <c r="J66" t="b">
         <v>0</v>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3168,6 +3498,11 @@
       <c r="J67" t="b">
         <v>1</v>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3214,6 +3549,11 @@
       <c r="J68" t="b">
         <v>1</v>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3252,6 +3592,11 @@
       <c r="J69" t="b">
         <v>1</v>
       </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3294,6 +3639,11 @@
       <c r="J70" t="b">
         <v>0</v>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3337,6 +3687,7 @@
       <c r="J71" t="b">
         <v>0</v>
       </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3379,6 +3730,11 @@
       <c r="J72" t="b">
         <v>1</v>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3421,6 +3777,11 @@
       <c r="J73" t="b">
         <v>0</v>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3463,6 +3824,11 @@
       <c r="J74" t="b">
         <v>0</v>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3505,6 +3871,11 @@
       <c r="J75" t="b">
         <v>0</v>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3547,6 +3918,11 @@
       <c r="J76" t="b">
         <v>0</v>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3589,6 +3965,11 @@
       <c r="J77" t="b">
         <v>1</v>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3627,6 +4008,11 @@
       <c r="J78" t="b">
         <v>0</v>
       </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3669,6 +4055,11 @@
       <c r="J79" t="b">
         <v>1</v>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3707,6 +4098,11 @@
       <c r="J80" t="b">
         <v>0</v>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3749,6 +4145,11 @@
       <c r="J81" t="b">
         <v>0</v>
       </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3791,6 +4192,11 @@
       <c r="J82" t="b">
         <v>1</v>
       </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3833,6 +4239,11 @@
       <c r="J83" t="b">
         <v>0</v>
       </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3875,6 +4286,11 @@
       <c r="J84" t="b">
         <v>1</v>
       </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3913,6 +4329,11 @@
       <c r="J85" t="b">
         <v>0</v>
       </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3955,6 +4376,11 @@
       <c r="J86" t="b">
         <v>0</v>
       </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3997,6 +4423,11 @@
       <c r="J87" t="b">
         <v>0</v>
       </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4035,6 +4466,11 @@
       <c r="J88" t="b">
         <v>0</v>
       </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4077,6 +4513,11 @@
       <c r="J89" t="b">
         <v>0</v>
       </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4119,6 +4560,11 @@
       <c r="J90" t="b">
         <v>1</v>
       </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4161,6 +4607,11 @@
       <c r="J91" t="b">
         <v>0</v>
       </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4203,6 +4654,7 @@
       <c r="J92" t="b">
         <v>0</v>
       </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4245,6 +4697,11 @@
       <c r="J93" t="b">
         <v>0</v>
       </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4287,6 +4744,11 @@
       <c r="J94" t="b">
         <v>0</v>
       </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4329,6 +4791,11 @@
       <c r="J95" t="b">
         <v>1</v>
       </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4371,6 +4838,11 @@
       <c r="J96" t="b">
         <v>0</v>
       </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4413,6 +4885,11 @@
       <c r="J97" t="b">
         <v>1</v>
       </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4455,6 +4932,11 @@
       <c r="J98" t="b">
         <v>0</v>
       </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4497,6 +4979,11 @@
       <c r="J99" t="b">
         <v>0</v>
       </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4539,6 +5026,11 @@
       <c r="J100" t="b">
         <v>0</v>
       </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4581,6 +5073,11 @@
       <c r="J101" t="b">
         <v>0</v>
       </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4619,6 +5116,11 @@
       <c r="J102" t="b">
         <v>1</v>
       </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4663,6 +5165,7 @@
       <c r="J103" t="b">
         <v>0</v>
       </c>
+      <c r="K103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4705,6 +5208,11 @@
       <c r="J104" t="b">
         <v>0</v>
       </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4743,6 +5251,11 @@
       <c r="J105" t="b">
         <v>1</v>
       </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4785,6 +5298,11 @@
       <c r="J106" t="b">
         <v>0</v>
       </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4823,6 +5341,11 @@
       <c r="J107" t="b">
         <v>1</v>
       </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4865,6 +5388,11 @@
       <c r="J108" t="b">
         <v>1</v>
       </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4907,6 +5435,11 @@
       <c r="J109" t="b">
         <v>0</v>
       </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4949,6 +5482,11 @@
       <c r="J110" t="b">
         <v>0</v>
       </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4991,6 +5529,11 @@
       <c r="J111" t="b">
         <v>1</v>
       </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5033,6 +5576,11 @@
       <c r="J112" t="b">
         <v>1</v>
       </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5075,6 +5623,11 @@
       <c r="J113" t="b">
         <v>0</v>
       </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5117,6 +5670,11 @@
       <c r="J114" t="b">
         <v>0</v>
       </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5159,6 +5717,11 @@
       <c r="J115" t="b">
         <v>1</v>
       </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5201,6 +5764,11 @@
       <c r="J116" t="b">
         <v>0</v>
       </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5243,6 +5811,11 @@
       <c r="J117" t="b">
         <v>1</v>
       </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5285,6 +5858,11 @@
       <c r="J118" t="b">
         <v>1</v>
       </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5327,6 +5905,11 @@
       <c r="J119" t="b">
         <v>1</v>
       </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5369,6 +5952,11 @@
       <c r="J120" t="b">
         <v>0</v>
       </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5411,6 +5999,11 @@
       <c r="J121" t="b">
         <v>0</v>
       </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5449,6 +6042,11 @@
       <c r="J122" t="b">
         <v>1</v>
       </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5491,6 +6089,11 @@
       <c r="J123" t="b">
         <v>0</v>
       </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5533,6 +6136,11 @@
       <c r="J124" t="b">
         <v>0</v>
       </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5575,6 +6183,11 @@
       <c r="J125" t="b">
         <v>1</v>
       </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5617,6 +6230,11 @@
       <c r="J126" t="b">
         <v>1</v>
       </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5655,6 +6273,11 @@
       <c r="J127" t="b">
         <v>1</v>
       </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5697,6 +6320,11 @@
       <c r="J128" t="b">
         <v>0</v>
       </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5735,6 +6363,11 @@
       <c r="J129" t="b">
         <v>0</v>
       </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5777,6 +6410,11 @@
       <c r="J130" t="b">
         <v>0</v>
       </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5819,6 +6457,11 @@
       <c r="J131" t="b">
         <v>1</v>
       </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5861,6 +6504,11 @@
       <c r="J132" t="b">
         <v>1</v>
       </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5903,6 +6551,11 @@
       <c r="J133" t="b">
         <v>0</v>
       </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5945,6 +6598,11 @@
       <c r="J134" t="b">
         <v>0</v>
       </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5987,6 +6645,11 @@
       <c r="J135" t="b">
         <v>1</v>
       </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6029,6 +6692,11 @@
       <c r="J136" t="b">
         <v>0</v>
       </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6071,6 +6739,11 @@
       <c r="J137" t="b">
         <v>0</v>
       </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6113,6 +6786,11 @@
       <c r="J138" t="b">
         <v>1</v>
       </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6155,6 +6833,11 @@
       <c r="J139" t="b">
         <v>1</v>
       </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6197,6 +6880,11 @@
       <c r="J140" t="b">
         <v>0</v>
       </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6239,6 +6927,11 @@
       <c r="J141" t="b">
         <v>1</v>
       </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6281,6 +6974,11 @@
       <c r="J142" t="b">
         <v>0</v>
       </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6323,6 +7021,11 @@
       <c r="J143" t="b">
         <v>0</v>
       </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6365,6 +7068,11 @@
       <c r="J144" t="b">
         <v>0</v>
       </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6407,6 +7115,11 @@
       <c r="J145" t="b">
         <v>1</v>
       </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6449,6 +7162,11 @@
       <c r="J146" t="b">
         <v>1</v>
       </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6491,6 +7209,11 @@
       <c r="J147" t="b">
         <v>1</v>
       </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6533,6 +7256,11 @@
       <c r="J148" t="b">
         <v>0</v>
       </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6575,6 +7303,11 @@
       <c r="J149" t="b">
         <v>1</v>
       </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6617,6 +7350,11 @@
       <c r="J150" t="b">
         <v>0</v>
       </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6659,6 +7397,11 @@
       <c r="J151" t="b">
         <v>1</v>
       </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6701,6 +7444,11 @@
       <c r="J152" t="b">
         <v>0</v>
       </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6743,6 +7491,11 @@
       <c r="J153" t="b">
         <v>0</v>
       </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6785,6 +7538,11 @@
       <c r="J154" t="b">
         <v>0</v>
       </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6827,6 +7585,11 @@
       <c r="J155" t="b">
         <v>0</v>
       </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -6869,6 +7632,11 @@
       <c r="J156" t="b">
         <v>0</v>
       </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -6911,6 +7679,11 @@
       <c r="J157" t="b">
         <v>0</v>
       </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -6953,6 +7726,11 @@
       <c r="J158" t="b">
         <v>0</v>
       </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -6996,6 +7774,7 @@
       <c r="J159" t="b">
         <v>0</v>
       </c>
+      <c r="K159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -7042,6 +7821,11 @@
       <c r="J160" t="b">
         <v>1</v>
       </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -7084,6 +7868,11 @@
       <c r="J161" t="b">
         <v>0</v>
       </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -7126,6 +7915,11 @@
       <c r="J162" t="b">
         <v>0</v>
       </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -7168,6 +7962,11 @@
       <c r="J163" t="b">
         <v>0</v>
       </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7210,6 +8009,11 @@
       <c r="J164" t="b">
         <v>0</v>
       </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7252,6 +8056,11 @@
       <c r="J165" t="b">
         <v>0</v>
       </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7294,6 +8103,11 @@
       <c r="J166" t="b">
         <v>0</v>
       </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7336,6 +8150,11 @@
       <c r="J167" t="b">
         <v>0</v>
       </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7378,6 +8197,11 @@
       <c r="J168" t="b">
         <v>0</v>
       </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7420,6 +8244,11 @@
       <c r="J169" t="b">
         <v>0</v>
       </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7462,6 +8291,11 @@
       <c r="J170" t="b">
         <v>0</v>
       </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7505,6 +8339,7 @@
       <c r="J171" t="b">
         <v>0</v>
       </c>
+      <c r="K171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -7547,6 +8382,11 @@
       <c r="J172" t="b">
         <v>0</v>
       </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -7589,6 +8429,11 @@
       <c r="J173" t="b">
         <v>1</v>
       </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -7631,6 +8476,11 @@
       <c r="J174" t="b">
         <v>0</v>
       </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -7675,6 +8525,7 @@
       <c r="J175" t="b">
         <v>0</v>
       </c>
+      <c r="K175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -7717,6 +8568,11 @@
       <c r="J176" t="b">
         <v>0</v>
       </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -7759,6 +8615,11 @@
       <c r="J177" t="b">
         <v>0</v>
       </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -7801,6 +8662,11 @@
       <c r="J178" t="b">
         <v>0</v>
       </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -7843,6 +8709,11 @@
       <c r="J179" t="b">
         <v>0</v>
       </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -7885,6 +8756,11 @@
       <c r="J180" t="b">
         <v>1</v>
       </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -7927,6 +8803,11 @@
       <c r="J181" t="b">
         <v>1</v>
       </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -7969,6 +8850,11 @@
       <c r="J182" t="b">
         <v>0</v>
       </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -8011,6 +8897,11 @@
       <c r="J183" t="b">
         <v>0</v>
       </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -8053,6 +8944,11 @@
       <c r="J184" t="b">
         <v>1</v>
       </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -8095,6 +8991,11 @@
       <c r="J185" t="b">
         <v>0</v>
       </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -8137,6 +9038,11 @@
       <c r="J186" t="b">
         <v>1</v>
       </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -8179,6 +9085,11 @@
       <c r="J187" t="b">
         <v>0</v>
       </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -8221,6 +9132,11 @@
       <c r="J188" t="b">
         <v>0</v>
       </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -8263,6 +9179,11 @@
       <c r="J189" t="b">
         <v>0</v>
       </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -8305,6 +9226,11 @@
       <c r="J190" t="b">
         <v>0</v>
       </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -8346,6 +9272,11 @@
       </c>
       <c r="J191" t="b">
         <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
       </c>
     </row>
     <row r="192">
@@ -8389,6 +9320,7 @@
       <c r="J192" t="b">
         <v>0</v>
       </c>
+      <c r="K192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -8431,6 +9363,11 @@
       <c r="J193" t="b">
         <v>0</v>
       </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -8473,6 +9410,11 @@
       <c r="J194" t="b">
         <v>1</v>
       </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -8515,6 +9457,11 @@
       <c r="J195" t="b">
         <v>0</v>
       </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -8557,6 +9504,11 @@
       <c r="J196" t="b">
         <v>0</v>
       </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -8599,6 +9551,11 @@
       <c r="J197" t="b">
         <v>1</v>
       </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -8641,6 +9598,11 @@
       <c r="J198" t="b">
         <v>1</v>
       </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -8683,6 +9645,11 @@
       <c r="J199" t="b">
         <v>0</v>
       </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -8725,6 +9692,11 @@
       <c r="J200" t="b">
         <v>0</v>
       </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -8767,6 +9739,11 @@
       <c r="J201" t="b">
         <v>0</v>
       </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -8809,6 +9786,11 @@
       <c r="J202" t="b">
         <v>0</v>
       </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -8851,6 +9833,11 @@
       <c r="J203" t="b">
         <v>1</v>
       </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -8893,6 +9880,11 @@
       <c r="J204" t="b">
         <v>0</v>
       </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -8935,6 +9927,11 @@
       <c r="J205" t="b">
         <v>0</v>
       </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -8977,6 +9974,11 @@
       <c r="J206" t="b">
         <v>0</v>
       </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>COMBINATION_PRODUCT</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -9019,6 +10021,11 @@
       <c r="J207" t="b">
         <v>0</v>
       </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -9061,6 +10068,11 @@
       <c r="J208" t="b">
         <v>0</v>
       </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -9103,6 +10115,11 @@
       <c r="J209" t="b">
         <v>0</v>
       </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -9145,6 +10162,11 @@
       <c r="J210" t="b">
         <v>0</v>
       </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -9187,6 +10209,11 @@
       <c r="J211" t="b">
         <v>0</v>
       </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -9229,6 +10256,11 @@
       <c r="J212" t="b">
         <v>1</v>
       </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -9271,6 +10303,11 @@
       <c r="J213" t="b">
         <v>0</v>
       </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -9313,6 +10350,11 @@
       <c r="J214" t="b">
         <v>1</v>
       </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -9355,6 +10397,11 @@
       <c r="J215" t="b">
         <v>0</v>
       </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -9397,6 +10444,11 @@
       <c r="J216" t="b">
         <v>0</v>
       </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -9439,6 +10491,11 @@
       <c r="J217" t="b">
         <v>0</v>
       </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -9481,6 +10538,11 @@
       <c r="J218" t="b">
         <v>0</v>
       </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -9523,6 +10585,11 @@
       <c r="J219" t="b">
         <v>0</v>
       </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -9565,6 +10632,11 @@
       <c r="J220" t="b">
         <v>1</v>
       </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -9607,6 +10679,11 @@
       <c r="J221" t="b">
         <v>0</v>
       </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -9649,6 +10726,11 @@
       <c r="J222" t="b">
         <v>0</v>
       </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -9691,6 +10773,11 @@
       <c r="J223" t="b">
         <v>0</v>
       </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -9733,6 +10820,11 @@
       <c r="J224" t="b">
         <v>1</v>
       </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -9775,6 +10867,11 @@
       <c r="J225" t="b">
         <v>0</v>
       </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -9817,6 +10914,11 @@
       <c r="J226" t="b">
         <v>0</v>
       </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -9859,6 +10961,11 @@
       <c r="J227" t="b">
         <v>0</v>
       </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -9901,6 +11008,11 @@
       <c r="J228" t="b">
         <v>0</v>
       </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -9943,6 +11055,11 @@
       <c r="J229" t="b">
         <v>0</v>
       </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>COMBINATION_PRODUCT</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -9985,6 +11102,11 @@
       <c r="J230" t="b">
         <v>0</v>
       </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -10027,6 +11149,11 @@
       <c r="J231" t="b">
         <v>0</v>
       </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -10069,6 +11196,11 @@
       <c r="J232" t="b">
         <v>0</v>
       </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -10111,6 +11243,7 @@
       <c r="J233" t="b">
         <v>0</v>
       </c>
+      <c r="K233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -10153,6 +11286,11 @@
       <c r="J234" t="b">
         <v>0</v>
       </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -10195,6 +11333,11 @@
       <c r="J235" t="b">
         <v>0</v>
       </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -10239,6 +11382,7 @@
       <c r="J236" t="b">
         <v>0</v>
       </c>
+      <c r="K236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -10281,6 +11425,11 @@
       <c r="J237" t="b">
         <v>1</v>
       </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -10323,6 +11472,11 @@
       <c r="J238" t="b">
         <v>0</v>
       </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -10365,6 +11519,11 @@
       <c r="J239" t="b">
         <v>0</v>
       </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -10407,6 +11566,11 @@
       <c r="J240" t="b">
         <v>0</v>
       </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -10449,6 +11613,11 @@
       <c r="J241" t="b">
         <v>0</v>
       </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -10491,6 +11660,11 @@
       <c r="J242" t="b">
         <v>0</v>
       </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -10533,6 +11707,11 @@
       <c r="J243" t="b">
         <v>0</v>
       </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -10575,6 +11754,11 @@
       <c r="J244" t="b">
         <v>0</v>
       </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -10617,6 +11801,11 @@
       <c r="J245" t="b">
         <v>0</v>
       </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -10659,6 +11848,11 @@
       <c r="J246" t="b">
         <v>0</v>
       </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -10701,6 +11895,11 @@
       <c r="J247" t="b">
         <v>0</v>
       </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -10743,6 +11942,11 @@
       <c r="J248" t="b">
         <v>0</v>
       </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -10785,6 +11989,11 @@
       <c r="J249" t="b">
         <v>0</v>
       </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -10827,6 +12036,11 @@
       <c r="J250" t="b">
         <v>0</v>
       </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -10869,6 +12083,11 @@
       <c r="J251" t="b">
         <v>1</v>
       </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -10911,6 +12130,11 @@
       <c r="J252" t="b">
         <v>0</v>
       </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -10953,6 +12177,11 @@
       <c r="J253" t="b">
         <v>0</v>
       </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -10995,6 +12224,11 @@
       <c r="J254" t="b">
         <v>0</v>
       </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -11037,6 +12271,11 @@
       <c r="J255" t="b">
         <v>0</v>
       </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -11079,6 +12318,11 @@
       <c r="J256" t="b">
         <v>0</v>
       </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -11121,6 +12365,11 @@
       <c r="J257" t="b">
         <v>0</v>
       </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -11163,6 +12412,11 @@
       <c r="J258" t="b">
         <v>0</v>
       </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -11205,6 +12459,11 @@
       <c r="J259" t="b">
         <v>0</v>
       </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -11247,6 +12506,11 @@
       <c r="J260" t="b">
         <v>0</v>
       </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -11289,6 +12553,11 @@
       <c r="J261" t="b">
         <v>0</v>
       </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -11331,6 +12600,11 @@
       <c r="J262" t="b">
         <v>0</v>
       </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -11373,6 +12647,11 @@
       <c r="J263" t="b">
         <v>0</v>
       </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -11415,6 +12694,7 @@
       <c r="J264" t="b">
         <v>0</v>
       </c>
+      <c r="K264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -11457,6 +12737,11 @@
       <c r="J265" t="b">
         <v>0</v>
       </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -11499,6 +12784,11 @@
       <c r="J266" t="b">
         <v>0</v>
       </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -11541,6 +12831,11 @@
       <c r="J267" t="b">
         <v>0</v>
       </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -11583,6 +12878,11 @@
       <c r="J268" t="b">
         <v>0</v>
       </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -11625,6 +12925,11 @@
       <c r="J269" t="b">
         <v>0</v>
       </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -11667,6 +12972,11 @@
       <c r="J270" t="b">
         <v>0</v>
       </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -11709,6 +13019,11 @@
       <c r="J271" t="b">
         <v>0</v>
       </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -11751,6 +13066,11 @@
       <c r="J272" t="b">
         <v>0</v>
       </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -11793,6 +13113,11 @@
       <c r="J273" t="b">
         <v>0</v>
       </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -11835,6 +13160,11 @@
       <c r="J274" t="b">
         <v>0</v>
       </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -11877,6 +13207,11 @@
       <c r="J275" t="b">
         <v>0</v>
       </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -11919,6 +13254,11 @@
       <c r="J276" t="b">
         <v>0</v>
       </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -11961,6 +13301,11 @@
       <c r="J277" t="b">
         <v>0</v>
       </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -12003,6 +13348,11 @@
       <c r="J278" t="b">
         <v>0</v>
       </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -12045,6 +13395,11 @@
       <c r="J279" t="b">
         <v>0</v>
       </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -12087,6 +13442,11 @@
       <c r="J280" t="b">
         <v>0</v>
       </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -12129,6 +13489,11 @@
       <c r="J281" t="b">
         <v>0</v>
       </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -12171,6 +13536,11 @@
       <c r="J282" t="b">
         <v>0</v>
       </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -12213,6 +13583,11 @@
       <c r="J283" t="b">
         <v>0</v>
       </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -12255,6 +13630,11 @@
       <c r="J284" t="b">
         <v>0</v>
       </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -12297,6 +13677,11 @@
       <c r="J285" t="b">
         <v>0</v>
       </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -12339,6 +13724,11 @@
       <c r="J286" t="b">
         <v>0</v>
       </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -12381,6 +13771,11 @@
       <c r="J287" t="b">
         <v>0</v>
       </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -12423,6 +13818,11 @@
       <c r="J288" t="b">
         <v>0</v>
       </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -12465,6 +13865,11 @@
       <c r="J289" t="b">
         <v>0</v>
       </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -12507,6 +13912,11 @@
       <c r="J290" t="b">
         <v>0</v>
       </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -12549,6 +13959,11 @@
       <c r="J291" t="b">
         <v>0</v>
       </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -12591,6 +14006,11 @@
       <c r="J292" t="b">
         <v>0</v>
       </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -12633,6 +14053,11 @@
       <c r="J293" t="b">
         <v>0</v>
       </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -12673,6 +14098,7 @@
       <c r="J294" t="b">
         <v>0</v>
       </c>
+      <c r="K294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -12707,6 +14133,7 @@
       <c r="J295" t="b">
         <v>0</v>
       </c>
+      <c r="K295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -12745,6 +14172,7 @@
       <c r="J296" t="b">
         <v>0</v>
       </c>
+      <c r="K296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -12786,6 +14214,7 @@
       <c r="J297" t="b">
         <v>0</v>
       </c>
+      <c r="K297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -12824,6 +14253,7 @@
       <c r="J298" t="b">
         <v>0</v>
       </c>
+      <c r="K298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -12864,6 +14294,7 @@
       <c r="J299" t="b">
         <v>0</v>
       </c>
+      <c r="K299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -12903,6 +14334,7 @@
       <c r="J300" t="b">
         <v>0</v>
       </c>
+      <c r="K300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -12941,6 +14373,7 @@
       <c r="J301" t="b">
         <v>0</v>
       </c>
+      <c r="K301" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
